--- a/simulated_data/10nodes_5len_trial7.xlsx
+++ b/simulated_data/10nodes_5len_trial7.xlsx
@@ -10,20 +10,27 @@
     <sheet name="rss_data" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="true_dist" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="est_dist_data" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="rss_only_dist" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="rss_post_averaged_dist" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="spring_model_dist" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="spring_model_locs" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="sdp_dist" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="sdp_locs" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="mds_metric_dist" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="mds_metric_locs" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="mds_non_metric_dist" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="mds_non_metric_locs" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="sdp_init_spring_dist" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="sdp_init_spring_locs" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="runtimes" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="estimation_performance" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="spring_model_dist" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="spring_model_locs" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="estimation_performance" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="rss_only_dist" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="rss_pre_averaged_dist" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="rss_post_averaged_dist" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="spring_model_5inits_dist" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="spring_model_5inits_locs" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="sdp_dist" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="sdp_locs" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="mds_metric_dist" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="mds_metric_locs" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="mds_non_metric_dist" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="mds_non_metric_locs" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="sdp_init_spring_dist" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="sdp_init_spring_locs" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="lle_dist" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="lle_locs" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="isomap_dist" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="isomap_locs" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="runtimes" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,7 +544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,16 +559,64 @@
       <c r="C1" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.163810954149102</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1638109541491004</v>
+        <v>1.16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.435</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.935</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.285</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.19</v>
       </c>
     </row>
     <row r="3">
@@ -569,10 +624,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.6425036074986006</v>
+        <v>1.16</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.6425036074986021</v>
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.305</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.515</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.065</v>
       </c>
     </row>
     <row r="4">
@@ -580,10 +659,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.7568079284292287</v>
+        <v>1.17</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.7568079284292286</v>
+        <v>1.305</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.935</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.645</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.41</v>
       </c>
     </row>
     <row r="5">
@@ -591,10 +694,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.411290376907967</v>
+        <v>3.435</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.411290376907967</v>
+        <v>1.915</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.935</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.945</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.225</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5.175000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -602,10 +729,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.37591834099125</v>
+        <v>1.98</v>
       </c>
       <c r="C6" t="n">
-        <v>1.375918340991249</v>
+        <v>2.23</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.315</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5.315</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.03</v>
       </c>
     </row>
     <row r="7">
@@ -613,10 +764,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8610189375821476</v>
+        <v>1.935</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8610189375821472</v>
+        <v>1.69</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.645</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.215</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.545</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.88</v>
       </c>
     </row>
     <row r="8">
@@ -624,10 +799,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.2129825195746872</v>
+        <v>1.885</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.2129825195746858</v>
+        <v>1.02</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.945</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.315</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3.215</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.42</v>
       </c>
     </row>
     <row r="9">
@@ -635,10 +834,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.1650887801723654</v>
+        <v>1.285</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.1650887801723663</v>
+        <v>2.1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.225</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.545</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.71</v>
       </c>
     </row>
     <row r="10">
@@ -646,10 +869,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.53496283082393</v>
+        <v>2.47</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.53496283082393</v>
+        <v>1.515</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5.315</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.65</v>
       </c>
     </row>
     <row r="11">
@@ -657,10 +904,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>2.19</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>3.065</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5.175000000000001</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -722,31 +993,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>1.97</v>
+        <v>1.72</v>
       </c>
       <c r="E2" t="n">
-        <v>2.52</v>
+        <v>2.31</v>
       </c>
       <c r="F2" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="G2" t="n">
-        <v>1.76</v>
+        <v>1.54</v>
       </c>
       <c r="H2" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I2" t="n">
         <v>1.6</v>
       </c>
-      <c r="I2" t="n">
-        <v>1.59</v>
-      </c>
       <c r="J2" t="n">
-        <v>2.29</v>
+        <v>1.95</v>
       </c>
       <c r="K2" t="n">
-        <v>1.95</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="3">
@@ -754,34 +1025,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="E3" t="n">
-        <v>1.84</v>
+        <v>1.62</v>
       </c>
       <c r="F3" t="n">
-        <v>2.28</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>2.07</v>
+        <v>2.24</v>
       </c>
       <c r="H3" t="n">
-        <v>0.72</v>
+        <v>0.86</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="J3" t="n">
-        <v>1.85</v>
+        <v>1.27</v>
       </c>
       <c r="K3" t="n">
-        <v>2.63</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="4">
@@ -789,34 +1060,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.97</v>
+        <v>1.72</v>
       </c>
       <c r="C4" t="n">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2.45</v>
+        <v>1.66</v>
       </c>
       <c r="F4" t="n">
-        <v>2.29</v>
+        <v>2.72</v>
       </c>
       <c r="G4" t="n">
-        <v>2.04</v>
+        <v>2.96</v>
       </c>
       <c r="H4" t="n">
         <v>0.83</v>
       </c>
       <c r="I4" t="n">
-        <v>3.29</v>
+        <v>1.72</v>
       </c>
       <c r="J4" t="n">
-        <v>2.77</v>
+        <v>1.82</v>
       </c>
       <c r="K4" t="n">
-        <v>3.03</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="5">
@@ -824,34 +1095,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.52</v>
+        <v>2.31</v>
       </c>
       <c r="C5" t="n">
-        <v>1.84</v>
+        <v>1.62</v>
       </c>
       <c r="D5" t="n">
-        <v>2.45</v>
+        <v>1.66</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.12</v>
+        <v>3.61</v>
       </c>
       <c r="G5" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="H5" t="n">
-        <v>1.66</v>
+        <v>1.99</v>
       </c>
       <c r="I5" t="n">
-        <v>2.48</v>
+        <v>3.2</v>
       </c>
       <c r="J5" t="n">
-        <v>0.71</v>
+        <v>0.61</v>
       </c>
       <c r="K5" t="n">
-        <v>4.43</v>
+        <v>4.78</v>
       </c>
     </row>
     <row r="6">
@@ -859,16 +1130,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="C6" t="n">
-        <v>2.28</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>2.29</v>
+        <v>2.72</v>
       </c>
       <c r="E6" t="n">
-        <v>4.12</v>
+        <v>3.61</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -877,16 +1148,16 @@
         <v>0.25</v>
       </c>
       <c r="H6" t="n">
-        <v>2.62</v>
+        <v>1.9</v>
       </c>
       <c r="I6" t="n">
-        <v>3.39</v>
+        <v>1.59</v>
       </c>
       <c r="J6" t="n">
-        <v>4.08</v>
+        <v>3.24</v>
       </c>
       <c r="K6" t="n">
-        <v>0.95</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="7">
@@ -894,16 +1165,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.76</v>
+        <v>1.54</v>
       </c>
       <c r="C7" t="n">
-        <v>2.07</v>
+        <v>2.24</v>
       </c>
       <c r="D7" t="n">
-        <v>2.04</v>
+        <v>2.96</v>
       </c>
       <c r="E7" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="F7" t="n">
         <v>0.25</v>
@@ -912,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>2.38</v>
+        <v>2.14</v>
       </c>
       <c r="I7" t="n">
-        <v>3.29</v>
+        <v>1.76</v>
       </c>
       <c r="J7" t="n">
-        <v>3.89</v>
+        <v>3.48</v>
       </c>
       <c r="K7" t="n">
-        <v>1.14</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="8">
@@ -929,34 +1200,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.6</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.72</v>
+        <v>0.86</v>
       </c>
       <c r="D8" t="n">
         <v>0.83</v>
       </c>
       <c r="E8" t="n">
-        <v>1.66</v>
+        <v>1.99</v>
       </c>
       <c r="F8" t="n">
-        <v>2.62</v>
+        <v>1.9</v>
       </c>
       <c r="G8" t="n">
-        <v>2.38</v>
+        <v>2.14</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>2.62</v>
+        <v>1.22</v>
       </c>
       <c r="J8" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="K8" t="n">
-        <v>3.16</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="9">
@@ -964,34 +1235,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F9" t="n">
         <v>1.59</v>
       </c>
-      <c r="C9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3.39</v>
-      </c>
       <c r="G9" t="n">
-        <v>3.29</v>
+        <v>1.76</v>
       </c>
       <c r="H9" t="n">
-        <v>2.62</v>
+        <v>1.22</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1.87</v>
+        <v>3.1</v>
       </c>
       <c r="K9" t="n">
-        <v>3.13</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="10">
@@ -999,34 +1270,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.29</v>
+        <v>1.95</v>
       </c>
       <c r="C10" t="n">
-        <v>1.85</v>
+        <v>1.27</v>
       </c>
       <c r="D10" t="n">
-        <v>2.77</v>
+        <v>1.82</v>
       </c>
       <c r="E10" t="n">
-        <v>0.71</v>
+        <v>0.61</v>
       </c>
       <c r="F10" t="n">
-        <v>4.08</v>
+        <v>3.24</v>
       </c>
       <c r="G10" t="n">
-        <v>3.89</v>
+        <v>3.48</v>
       </c>
       <c r="H10" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="I10" t="n">
-        <v>1.87</v>
+        <v>3.1</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.24</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="11">
@@ -1034,31 +1305,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.95</v>
+        <v>2.49</v>
       </c>
       <c r="C11" t="n">
-        <v>2.63</v>
+        <v>3.17</v>
       </c>
       <c r="D11" t="n">
-        <v>3.03</v>
+        <v>4.03</v>
       </c>
       <c r="E11" t="n">
-        <v>4.43</v>
+        <v>4.78</v>
       </c>
       <c r="F11" t="n">
-        <v>0.95</v>
+        <v>1.31</v>
       </c>
       <c r="G11" t="n">
-        <v>1.14</v>
+        <v>1.08</v>
       </c>
       <c r="H11" t="n">
-        <v>3.16</v>
+        <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>3.13</v>
+        <v>2.8</v>
       </c>
       <c r="J11" t="n">
-        <v>4.24</v>
+        <v>4.34</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1096,10 +1367,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.1125653584823584</v>
+        <v>5.852806612574625</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.5540891595692263</v>
+        <v>3.605863970420953</v>
       </c>
     </row>
     <row r="3">
@@ -1107,10 +1378,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.1821086935864045</v>
+        <v>5.277098492888594</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3407501460265627</v>
+        <v>3.993664601452183</v>
       </c>
     </row>
     <row r="4">
@@ -1118,10 +1389,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.766226031342127</v>
+        <v>5.64367804179011</v>
       </c>
       <c r="C4" t="n">
-        <v>1.211564570420432</v>
+        <v>5.309390230663245</v>
       </c>
     </row>
     <row r="5">
@@ -1129,10 +1400,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.670931127871765</v>
+        <v>4.012076960717526</v>
       </c>
       <c r="C5" t="n">
-        <v>1.426095190693767</v>
+        <v>4.999175876477919</v>
       </c>
     </row>
     <row r="6">
@@ -1140,10 +1411,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.760234352130571</v>
+        <v>6.972798733112854</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.8463028521153526</v>
+        <v>2.939471910395679</v>
       </c>
     </row>
     <row r="7">
@@ -1151,10 +1422,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.647421066174205</v>
+        <v>7.14307623663133</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.6227587514198746</v>
+        <v>2.758960399212267</v>
       </c>
     </row>
     <row r="8">
@@ -1162,10 +1433,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.05078111066471996</v>
+        <v>5.948804906686605</v>
       </c>
       <c r="C8" t="n">
-        <v>1.044623227007213</v>
+        <v>4.538513814111851</v>
       </c>
     </row>
     <row r="9">
@@ -1173,10 +1444,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.619049533652392</v>
+        <v>7.171503495233104</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.048983630883735</v>
+        <v>4.519646729707864</v>
       </c>
     </row>
     <row r="10">
@@ -1184,10 +1455,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.972563789630208</v>
+        <v>4.073950954411788</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7884073796271118</v>
+        <v>4.396414628386826</v>
       </c>
     </row>
     <row r="11">
@@ -1195,10 +1466,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.434118164240944</v>
+        <v>7.507586182268216</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.739306119786899</v>
+        <v>1.738712617500966</v>
       </c>
     </row>
   </sheetData>
@@ -1260,31 +1531,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.91</v>
+        <v>0.68</v>
       </c>
       <c r="D2" t="n">
-        <v>2.04</v>
+        <v>0.84</v>
       </c>
       <c r="E2" t="n">
-        <v>2.29</v>
+        <v>1.76</v>
       </c>
       <c r="F2" t="n">
-        <v>1.82</v>
+        <v>2.18</v>
       </c>
       <c r="G2" t="n">
-        <v>1.82</v>
+        <v>1.45</v>
       </c>
       <c r="H2" t="n">
-        <v>1.49</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.26</v>
+        <v>1.94</v>
       </c>
       <c r="K2" t="n">
-        <v>2.11</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="3">
@@ -1292,34 +1563,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.91</v>
+        <v>0.68</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.38</v>
+        <v>0.16</v>
       </c>
       <c r="E3" t="n">
-        <v>1.93</v>
+        <v>1.09</v>
       </c>
       <c r="F3" t="n">
-        <v>2.47</v>
+        <v>2.85</v>
       </c>
       <c r="G3" t="n">
-        <v>2.44</v>
+        <v>2.13</v>
       </c>
       <c r="H3" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="I3" t="n">
-        <v>2.04</v>
+        <v>0.68</v>
       </c>
       <c r="J3" t="n">
-        <v>1.89</v>
+        <v>1.26</v>
       </c>
       <c r="K3" t="n">
-        <v>2.66</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="4">
@@ -1327,34 +1598,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.04</v>
+        <v>0.84</v>
       </c>
       <c r="C4" t="n">
-        <v>1.38</v>
+        <v>0.16</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F4" t="n">
         <v>3.02</v>
       </c>
-      <c r="F4" t="n">
-        <v>2.8</v>
-      </c>
       <c r="G4" t="n">
-        <v>2.73</v>
+        <v>2.29</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="I4" t="n">
-        <v>3.38</v>
+        <v>0.84</v>
       </c>
       <c r="J4" t="n">
-        <v>3.02</v>
+        <v>1.1</v>
       </c>
       <c r="K4" t="n">
-        <v>2.84</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="5">
@@ -1362,34 +1633,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.29</v>
+        <v>1.76</v>
       </c>
       <c r="C5" t="n">
-        <v>1.93</v>
+        <v>1.09</v>
       </c>
       <c r="D5" t="n">
-        <v>3.02</v>
+        <v>0.93</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.11</v>
+        <v>3.94</v>
       </c>
       <c r="G5" t="n">
-        <v>4.11</v>
+        <v>3.21</v>
       </c>
       <c r="H5" t="n">
-        <v>2.22</v>
+        <v>1.69</v>
       </c>
       <c r="I5" t="n">
-        <v>2.18</v>
+        <v>1.76</v>
       </c>
       <c r="J5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="K5" t="n">
-        <v>4.37</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="6">
@@ -1397,34 +1668,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.82</v>
+        <v>2.18</v>
       </c>
       <c r="C6" t="n">
-        <v>2.47</v>
+        <v>2.85</v>
       </c>
       <c r="D6" t="n">
-        <v>2.8</v>
+        <v>3.02</v>
       </c>
       <c r="E6" t="n">
-        <v>4.11</v>
+        <v>3.94</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="H6" t="n">
-        <v>2.76</v>
+        <v>2.25</v>
       </c>
       <c r="I6" t="n">
-        <v>2.66</v>
+        <v>2.18</v>
       </c>
       <c r="J6" t="n">
-        <v>4.07</v>
+        <v>4.12</v>
       </c>
       <c r="K6" t="n">
-        <v>0.33</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="7">
@@ -1432,34 +1703,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.82</v>
+        <v>1.45</v>
       </c>
       <c r="C7" t="n">
-        <v>2.44</v>
+        <v>2.13</v>
       </c>
       <c r="D7" t="n">
-        <v>2.73</v>
+        <v>2.29</v>
       </c>
       <c r="E7" t="n">
-        <v>4.11</v>
+        <v>3.21</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>2.69</v>
+        <v>1.52</v>
       </c>
       <c r="I7" t="n">
-        <v>2.69</v>
+        <v>1.45</v>
       </c>
       <c r="J7" t="n">
-        <v>4.07</v>
+        <v>3.39</v>
       </c>
       <c r="K7" t="n">
-        <v>0.29</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8">
@@ -1467,34 +1738,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.49</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="E8" t="n">
-        <v>2.22</v>
+        <v>1.69</v>
       </c>
       <c r="F8" t="n">
-        <v>2.76</v>
+        <v>2.25</v>
       </c>
       <c r="G8" t="n">
-        <v>2.69</v>
+        <v>1.52</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>2.69</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>2.26</v>
+        <v>1.87</v>
       </c>
       <c r="K8" t="n">
-        <v>2.87</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="9">
@@ -1502,34 +1773,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>2.04</v>
+        <v>0.68</v>
       </c>
       <c r="D9" t="n">
-        <v>3.38</v>
+        <v>0.84</v>
       </c>
       <c r="E9" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="F9" t="n">
         <v>2.18</v>
       </c>
-      <c r="F9" t="n">
-        <v>2.66</v>
-      </c>
       <c r="G9" t="n">
-        <v>2.69</v>
+        <v>1.45</v>
       </c>
       <c r="H9" t="n">
-        <v>2.69</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2.15</v>
+        <v>1.94</v>
       </c>
       <c r="K9" t="n">
-        <v>2.98</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="10">
@@ -1537,34 +1808,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.26</v>
+        <v>1.94</v>
       </c>
       <c r="C10" t="n">
-        <v>1.89</v>
+        <v>1.26</v>
       </c>
       <c r="D10" t="n">
-        <v>3.02</v>
+        <v>1.1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="F10" t="n">
-        <v>4.07</v>
+        <v>4.12</v>
       </c>
       <c r="G10" t="n">
-        <v>4.07</v>
+        <v>3.39</v>
       </c>
       <c r="H10" t="n">
-        <v>2.26</v>
+        <v>1.87</v>
       </c>
       <c r="I10" t="n">
-        <v>2.15</v>
+        <v>1.94</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.33</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="11">
@@ -1572,31 +1843,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.11</v>
+        <v>1.65</v>
       </c>
       <c r="C11" t="n">
-        <v>2.66</v>
+        <v>2.32</v>
       </c>
       <c r="D11" t="n">
-        <v>2.84</v>
+        <v>2.48</v>
       </c>
       <c r="E11" t="n">
-        <v>4.37</v>
+        <v>3.41</v>
       </c>
       <c r="F11" t="n">
-        <v>0.33</v>
+        <v>0.53</v>
       </c>
       <c r="G11" t="n">
-        <v>0.29</v>
+        <v>0.2</v>
       </c>
       <c r="H11" t="n">
-        <v>2.87</v>
+        <v>1.72</v>
       </c>
       <c r="I11" t="n">
-        <v>2.98</v>
+        <v>1.65</v>
       </c>
       <c r="J11" t="n">
-        <v>4.33</v>
+        <v>3.58</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1634,10 +1905,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01199720724201803</v>
+        <v>-0.163810954149102</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08199608323389466</v>
+        <v>-0.1638109541491004</v>
       </c>
     </row>
     <row r="3">
@@ -1645,10 +1916,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.07923824321118086</v>
+        <v>-0.6425036074986006</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1563434999916724</v>
+        <v>-0.6425036074986021</v>
       </c>
     </row>
     <row r="4">
@@ -1656,10 +1927,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.1574845908535379</v>
+        <v>-0.7568079284292287</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.4494402552152738</v>
+        <v>-0.7568079284292286</v>
       </c>
     </row>
     <row r="5">
@@ -1667,10 +1938,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6051179326542898</v>
+        <v>-1.411290376907967</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1197739908091321</v>
+        <v>-1.411290376907967</v>
       </c>
     </row>
     <row r="6">
@@ -1678,10 +1949,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.4593255811351846</v>
+        <v>1.37591834099125</v>
       </c>
       <c r="C6" t="n">
-        <v>0.254014391302388</v>
+        <v>1.375918340991249</v>
       </c>
     </row>
     <row r="7">
@@ -1689,10 +1960,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.4660601707768606</v>
+        <v>0.8610189375821476</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2317692641731432</v>
+        <v>0.8610189375821472</v>
       </c>
     </row>
     <row r="8">
@@ -1700,10 +1971,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.02656114755960701</v>
+        <v>-0.2129825195746872</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.3243053824732467</v>
+        <v>-0.2129825195746858</v>
       </c>
     </row>
     <row r="9">
@@ -1711,10 +1982,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2614270465884496</v>
+        <v>-0.1650887801723654</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3768728727732217</v>
+        <v>-0.1650887801723663</v>
       </c>
     </row>
     <row r="10">
@@ -1722,10 +1993,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6009238411139581</v>
+        <v>-1.53496283082393</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.1006619887395666</v>
+        <v>-1.53496283082393</v>
       </c>
     </row>
     <row r="11">
@@ -1733,10 +2004,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.5486981989970697</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2238320926201698</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1798,31 +2069,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.06</v>
+        <v>0.9</v>
       </c>
       <c r="D2" t="n">
-        <v>1.58</v>
+        <v>1.97</v>
       </c>
       <c r="E2" t="n">
-        <v>2.88</v>
+        <v>2.52</v>
       </c>
       <c r="F2" t="n">
-        <v>1.09</v>
+        <v>1.9</v>
       </c>
       <c r="G2" t="n">
-        <v>1.33</v>
+        <v>1.76</v>
       </c>
       <c r="H2" t="n">
-        <v>0.64</v>
+        <v>1.6</v>
       </c>
       <c r="I2" t="n">
-        <v>0.19</v>
+        <v>1.59</v>
       </c>
       <c r="J2" t="n">
-        <v>2.45</v>
+        <v>2.29</v>
       </c>
       <c r="K2" t="n">
-        <v>2.34</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="3">
@@ -1830,34 +2101,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.06</v>
+        <v>0.9</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.52</v>
+        <v>1.29</v>
       </c>
       <c r="E3" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="F3" t="n">
-        <v>2.15</v>
+        <v>2.28</v>
       </c>
       <c r="G3" t="n">
-        <v>2.4</v>
+        <v>2.07</v>
       </c>
       <c r="H3" t="n">
-        <v>0.42</v>
+        <v>0.72</v>
       </c>
       <c r="I3" t="n">
-        <v>0.88</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>1.39</v>
+        <v>1.85</v>
       </c>
       <c r="K3" t="n">
-        <v>3.41</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="4">
@@ -1865,34 +2136,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.58</v>
+        <v>1.97</v>
       </c>
       <c r="C4" t="n">
-        <v>0.52</v>
+        <v>1.29</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1.3</v>
+        <v>2.45</v>
       </c>
       <c r="F4" t="n">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="G4" t="n">
-        <v>2.91</v>
+        <v>2.04</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="I4" t="n">
-        <v>1.39</v>
+        <v>3.29</v>
       </c>
       <c r="J4" t="n">
-        <v>0.88</v>
+        <v>2.77</v>
       </c>
       <c r="K4" t="n">
-        <v>3.92</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="5">
@@ -1900,34 +2171,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.88</v>
+        <v>2.52</v>
       </c>
       <c r="C5" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="D5" t="n">
-        <v>1.3</v>
+        <v>2.45</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>3.97</v>
+        <v>4.12</v>
       </c>
       <c r="G5" t="n">
-        <v>4.22</v>
+        <v>3.9</v>
       </c>
       <c r="H5" t="n">
-        <v>2.24</v>
+        <v>1.66</v>
       </c>
       <c r="I5" t="n">
-        <v>2.7</v>
+        <v>2.48</v>
       </c>
       <c r="J5" t="n">
-        <v>0.43</v>
+        <v>0.71</v>
       </c>
       <c r="K5" t="n">
-        <v>5.23</v>
+        <v>4.43</v>
       </c>
     </row>
     <row r="6">
@@ -1935,16 +2206,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.09</v>
+        <v>1.9</v>
       </c>
       <c r="C6" t="n">
-        <v>2.15</v>
+        <v>2.28</v>
       </c>
       <c r="D6" t="n">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="E6" t="n">
-        <v>3.97</v>
+        <v>4.12</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1953,16 +2224,16 @@
         <v>0.25</v>
       </c>
       <c r="H6" t="n">
-        <v>1.73</v>
+        <v>2.62</v>
       </c>
       <c r="I6" t="n">
-        <v>1.27</v>
+        <v>3.39</v>
       </c>
       <c r="J6" t="n">
-        <v>3.54</v>
+        <v>4.08</v>
       </c>
       <c r="K6" t="n">
-        <v>1.26</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="7">
@@ -1970,16 +2241,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.33</v>
+        <v>1.76</v>
       </c>
       <c r="C7" t="n">
-        <v>2.4</v>
+        <v>2.07</v>
       </c>
       <c r="D7" t="n">
-        <v>2.91</v>
+        <v>2.04</v>
       </c>
       <c r="E7" t="n">
-        <v>4.22</v>
+        <v>3.9</v>
       </c>
       <c r="F7" t="n">
         <v>0.25</v>
@@ -1988,16 +2259,16 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1.98</v>
+        <v>2.38</v>
       </c>
       <c r="I7" t="n">
-        <v>1.52</v>
+        <v>3.29</v>
       </c>
       <c r="J7" t="n">
-        <v>3.79</v>
+        <v>3.89</v>
       </c>
       <c r="K7" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="8">
@@ -2005,34 +2276,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.64</v>
+        <v>1.6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.42</v>
+        <v>0.72</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="E8" t="n">
-        <v>2.24</v>
+        <v>1.66</v>
       </c>
       <c r="F8" t="n">
-        <v>1.73</v>
+        <v>2.62</v>
       </c>
       <c r="G8" t="n">
-        <v>1.98</v>
+        <v>2.38</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.46</v>
+        <v>2.62</v>
       </c>
       <c r="J8" t="n">
-        <v>1.81</v>
+        <v>1.94</v>
       </c>
       <c r="K8" t="n">
-        <v>2.99</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="9">
@@ -2040,34 +2311,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.19</v>
+        <v>1.59</v>
       </c>
       <c r="C9" t="n">
-        <v>0.88</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>1.39</v>
+        <v>3.29</v>
       </c>
       <c r="E9" t="n">
-        <v>2.7</v>
+        <v>2.48</v>
       </c>
       <c r="F9" t="n">
-        <v>1.27</v>
+        <v>3.39</v>
       </c>
       <c r="G9" t="n">
-        <v>1.52</v>
+        <v>3.29</v>
       </c>
       <c r="H9" t="n">
-        <v>0.46</v>
+        <v>2.62</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2.27</v>
+        <v>1.87</v>
       </c>
       <c r="K9" t="n">
-        <v>2.53</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="10">
@@ -2075,34 +2346,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.45</v>
+        <v>2.29</v>
       </c>
       <c r="C10" t="n">
-        <v>1.39</v>
+        <v>1.85</v>
       </c>
       <c r="D10" t="n">
-        <v>0.88</v>
+        <v>2.77</v>
       </c>
       <c r="E10" t="n">
-        <v>0.43</v>
+        <v>0.71</v>
       </c>
       <c r="F10" t="n">
-        <v>3.54</v>
+        <v>4.08</v>
       </c>
       <c r="G10" t="n">
-        <v>3.79</v>
+        <v>3.89</v>
       </c>
       <c r="H10" t="n">
-        <v>1.81</v>
+        <v>1.94</v>
       </c>
       <c r="I10" t="n">
-        <v>2.27</v>
+        <v>1.87</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.8</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="11">
@@ -2110,31 +2381,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.34</v>
+        <v>1.95</v>
       </c>
       <c r="C11" t="n">
-        <v>3.41</v>
+        <v>2.63</v>
       </c>
       <c r="D11" t="n">
-        <v>3.92</v>
+        <v>3.03</v>
       </c>
       <c r="E11" t="n">
-        <v>5.23</v>
+        <v>4.43</v>
       </c>
       <c r="F11" t="n">
-        <v>1.26</v>
+        <v>0.95</v>
       </c>
       <c r="G11" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="H11" t="n">
-        <v>2.99</v>
+        <v>3.16</v>
       </c>
       <c r="I11" t="n">
-        <v>2.53</v>
+        <v>3.13</v>
       </c>
       <c r="J11" t="n">
-        <v>4.8</v>
+        <v>4.24</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -2172,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1350084445618832</v>
+        <v>-0.2401869889707146</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1350084445635203</v>
+        <v>-0.5118554161630532</v>
       </c>
     </row>
     <row r="3">
@@ -2183,10 +2454,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.6170593280586091</v>
+        <v>0.3494264755723486</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.6170593280582485</v>
+        <v>0.1648495570276299</v>
       </c>
     </row>
     <row r="4">
@@ -2194,10 +2465,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.9819981592852222</v>
+        <v>0.1077689487372853</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.9819981592851433</v>
+        <v>1.429467345933195</v>
       </c>
     </row>
     <row r="5">
@@ -2205,10 +2476,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.904610102903662</v>
+        <v>2.191782509546597</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.904610102904264</v>
+        <v>0.1478098706562354</v>
       </c>
     </row>
     <row r="6">
@@ -2216,10 +2487,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9032027731796621</v>
+        <v>-1.917592827429384</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9032027731795518</v>
+        <v>0.3707981123144483</v>
       </c>
     </row>
     <row r="7">
@@ -2227,10 +2498,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.077403218192549</v>
+        <v>-1.693699139734212</v>
       </c>
       <c r="C7" t="n">
-        <v>1.077403218192516</v>
+        <v>0.4829159925087049</v>
       </c>
     </row>
     <row r="8">
@@ -2238,10 +2509,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.3199609661207309</v>
+        <v>0.6639057048601428</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.3199609661213375</v>
+        <v>0.8081123823861045</v>
       </c>
     </row>
     <row r="9">
@@ -2249,10 +2520,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.002996013646225149</v>
+        <v>0.67368366358443</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002996013644242262</v>
+        <v>-1.807716341613267</v>
       </c>
     </row>
     <row r="10">
@@ -2260,10 +2531,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.600782430745105</v>
+        <v>2.053470055665467</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.600782430744976</v>
+        <v>-0.5439253909395856</v>
       </c>
     </row>
     <row r="11">
@@ -2271,10 +2542,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.792826588195821</v>
+        <v>-2.18855840183196</v>
       </c>
       <c r="C11" t="n">
-        <v>1.792826588195957</v>
+        <v>-0.5404561121104109</v>
       </c>
     </row>
   </sheetData>
@@ -2288,7 +2559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2297,40 +2568,35 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="2">
@@ -2338,25 +2604,349 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0001180171966552734</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001146793365478516</v>
+        <v>0.83</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05700969696044922</v>
+        <v>2.23</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7428293228149414</v>
+        <v>2.23</v>
       </c>
       <c r="F2" t="n">
-        <v>0.161292552947998</v>
+        <v>1.62</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1896047592163086</v>
+        <v>1.94</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6262023448944092</v>
+        <v>1.37</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2370,7 +2960,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2379,262 +2969,522 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>estimation_technique</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>max_error</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>max_percent_error</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>avg_error</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>avg_percent_error</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>true_pos_rate</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>false_pos_rate</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>runtime</t>
-        </is>
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
+      <c r="B2" t="n">
+        <v>-0.1069155229950114</v>
       </c>
       <c r="C2" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.064102564102564</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.5702222222222222</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.249442986195046</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.2592592592592592</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0001180171966552734</v>
+        <v>-0.009662156149411377</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
+      <c r="B3" t="n">
+        <v>0.1204221143086704</v>
       </c>
       <c r="C3" t="n">
-        <v>1.365</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.923076923076923</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.3745555555555556</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.172009394676081</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.1851851851851852</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0001146793365478516</v>
+        <v>-0.05435575003582095</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
+      <c r="B4" t="n">
+        <v>0.4956680646242999</v>
       </c>
       <c r="C4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.4168888888888889</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.1948732337016038</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.05700969696044922</v>
+        <v>0.1514132199180043</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
+      <c r="B5" t="n">
+        <v>0.1957544639745824</v>
       </c>
       <c r="C5" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.7835555555555553</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.4156869183900934</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.5185185185185185</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.7428293228149414</v>
+        <v>-0.5519769478215059</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
+      <c r="B6" t="n">
+        <v>-0.2105741855615328</v>
       </c>
       <c r="C6" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.3921568627450979</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.1691111111111111</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.09633745709356614</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.1481481481481481</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.161292552947998</v>
+        <v>0.4317636783273323</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
+      <c r="B7" t="n">
+        <v>-0.2062763706044946</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8600000000000001</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.8627450980392157</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.2888888888888889</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.1755679442688659</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.07407407407407407</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.1896047592163086</v>
+        <v>0.5230839573553349</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
+      <c r="B8" t="n">
+        <v>0.2744617054452099</v>
       </c>
       <c r="C8" t="n">
-        <v>2.66</v>
+        <v>0.02856238783058799</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.3527519340068513</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.3250722505262726</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.1422556048696535</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.620768936205265</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.3740925738067674</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4501385018252089</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.42</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8549618320610688</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6822222222222223</v>
+        <v>2.24</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3026180449468306</v>
+        <v>1.73</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7222222222222222</v>
+        <v>1.98</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4444444444444444</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6262023448944092</v>
+        <v>0.46</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.53</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3040,6 +3890,1325 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.1350084445618832</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1350084445635203</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.6170593280586091</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.6170593280582485</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.9819981592852222</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.9819981592851433</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-1.904610102903662</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1.904610102904264</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9032027731796621</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9032027731795518</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.077403218192549</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.077403218192516</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.3199609661207309</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.3199609661213375</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.002996013646225149</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.002996013644242262</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-1.600782430745105</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-1.600782430744976</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.792826588195821</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.792826588195957</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.03372797767336373</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.002303218618988291</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.06336328707149257</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.2454426480204523</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.02881455634208585</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.5676987034158962</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.4419803360870236</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.1011428177274373</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.4352424401941167</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.08137934246743997</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.4176414187876635</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.07578336886809467</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.08120389377847563</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.2016417853954738</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.2545659770216053</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6375275907589841</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.4618040518263564</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.09907024801285258</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.3874911527902008</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.371428923568936</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.3528185903153485</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.3675138549440719</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.86189723228082</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-1.466851422612536</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.2855999072454858</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-2.65725966308905</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4.415183562414212</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.1124440399728517</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-4.373558567781382</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1181665696935732</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-3.868951380493642</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.4877513313557863</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.8694579638607964</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.9863445548190325</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.809116515439374</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.998222950718535</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4.514921345014518</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.011628249028175</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-4.160847987664835</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.950147097353049</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>rss_only</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>rss_pre_averaged</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>rss_post_averaged</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>spring_model_5inits</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>sdp</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>mds_metric</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>mds_non_metric</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>sdp_init_spring</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>lle</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>isomap</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0002615451812744141</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0002593994140625</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0002601146697998047</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.089479923248291</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.259647369384766</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.3631720542907715</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.4219579696655273</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.07537007331848145</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.01325821876525879</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.009213924407958984</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -5344,31 +7513,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.53</v>
+        <v>0.75</v>
       </c>
       <c r="D2" t="n">
-        <v>1.16</v>
+        <v>1.81</v>
       </c>
       <c r="E2" t="n">
-        <v>1.56</v>
+        <v>2.07</v>
       </c>
       <c r="F2" t="n">
-        <v>2.26</v>
+        <v>1.67</v>
       </c>
       <c r="G2" t="n">
-        <v>1.77</v>
+        <v>1.97</v>
       </c>
       <c r="H2" t="n">
-        <v>2.42</v>
+        <v>1.57</v>
       </c>
       <c r="I2" t="n">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
       <c r="J2" t="n">
-        <v>2.77</v>
+        <v>1.64</v>
       </c>
       <c r="K2" t="n">
-        <v>2.14</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="3">
@@ -5376,34 +7545,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.46</v>
+        <v>1.06</v>
       </c>
       <c r="E3" t="n">
-        <v>1.38</v>
+        <v>1.7</v>
       </c>
       <c r="F3" t="n">
-        <v>3.27</v>
+        <v>1.91</v>
       </c>
       <c r="G3" t="n">
-        <v>1.62</v>
+        <v>2.15</v>
       </c>
       <c r="H3" t="n">
-        <v>0.88</v>
+        <v>1.13</v>
       </c>
       <c r="I3" t="n">
-        <v>1.74</v>
+        <v>2.11</v>
       </c>
       <c r="J3" t="n">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="K3" t="n">
-        <v>2.47</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="4">
@@ -5411,34 +7580,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.18</v>
+        <v>1.81</v>
       </c>
       <c r="C4" t="n">
-        <v>1.15</v>
+        <v>1.06</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="F4" t="n">
-        <v>3.33</v>
+        <v>2.44</v>
       </c>
       <c r="G4" t="n">
-        <v>2.23</v>
+        <v>2.56</v>
       </c>
       <c r="H4" t="n">
-        <v>1.61</v>
+        <v>1.01</v>
       </c>
       <c r="I4" t="n">
-        <v>2.94</v>
+        <v>3.17</v>
       </c>
       <c r="J4" t="n">
-        <v>2.14</v>
+        <v>1.92</v>
       </c>
       <c r="K4" t="n">
-        <v>3.4</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="5">
@@ -5446,34 +7615,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.31</v>
+        <v>2.07</v>
       </c>
       <c r="C5" t="n">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
       <c r="D5" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.38</v>
+        <v>3.6</v>
       </c>
       <c r="G5" t="n">
-        <v>2.92</v>
+        <v>3.84</v>
       </c>
       <c r="H5" t="n">
-        <v>1.72</v>
+        <v>2.65</v>
       </c>
       <c r="I5" t="n">
-        <v>1.74</v>
+        <v>2.7</v>
       </c>
       <c r="J5" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="K5" t="n">
-        <v>4.91</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="6">
@@ -5481,34 +7650,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="C6" t="n">
-        <v>1.19</v>
+        <v>1.91</v>
       </c>
       <c r="D6" t="n">
-        <v>1.87</v>
+        <v>2.44</v>
       </c>
       <c r="E6" t="n">
-        <v>2.94</v>
+        <v>3.6</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.18</v>
+        <v>0.32</v>
       </c>
       <c r="H6" t="n">
-        <v>2.06</v>
+        <v>1.5</v>
       </c>
       <c r="I6" t="n">
-        <v>1.92</v>
+        <v>2.58</v>
       </c>
       <c r="J6" t="n">
-        <v>5.76</v>
+        <v>3.24</v>
       </c>
       <c r="K6" t="n">
-        <v>1.05</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="7">
@@ -5516,34 +7685,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.1</v>
+        <v>1.97</v>
       </c>
       <c r="C7" t="n">
-        <v>1.76</v>
+        <v>2.15</v>
       </c>
       <c r="D7" t="n">
-        <v>1.06</v>
+        <v>2.56</v>
       </c>
       <c r="E7" t="n">
-        <v>4.86</v>
+        <v>3.84</v>
       </c>
       <c r="F7" t="n">
-        <v>0.45</v>
+        <v>0.32</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>3.27</v>
+        <v>1.57</v>
       </c>
       <c r="I7" t="n">
-        <v>3.27</v>
+        <v>2.9</v>
       </c>
       <c r="J7" t="n">
-        <v>3.39</v>
+        <v>3.51</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="8">
@@ -5551,34 +7720,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.35</v>
+        <v>1.57</v>
       </c>
       <c r="C8" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="D8" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="E8" t="n">
-        <v>2.17</v>
+        <v>2.65</v>
       </c>
       <c r="F8" t="n">
-        <v>2.57</v>
+        <v>1.5</v>
       </c>
       <c r="G8" t="n">
-        <v>3.16</v>
+        <v>1.57</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>2.34</v>
+        <v>2.98</v>
       </c>
       <c r="J8" t="n">
-        <v>3.32</v>
+        <v>2.49</v>
       </c>
       <c r="K8" t="n">
-        <v>1.72</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="9">
@@ -5586,34 +7755,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="C9" t="n">
-        <v>2.46</v>
+        <v>2.11</v>
       </c>
       <c r="D9" t="n">
-        <v>5.3</v>
+        <v>3.17</v>
       </c>
       <c r="E9" t="n">
-        <v>2.71</v>
+        <v>2.7</v>
       </c>
       <c r="F9" t="n">
-        <v>4.64</v>
+        <v>2.58</v>
       </c>
       <c r="G9" t="n">
-        <v>3.82</v>
+        <v>2.9</v>
       </c>
       <c r="H9" t="n">
-        <v>3.04</v>
+        <v>2.98</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1.45</v>
+        <v>2.18</v>
       </c>
       <c r="K9" t="n">
-        <v>1.51</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="10">
@@ -5621,34 +7790,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.17</v>
+        <v>1.64</v>
       </c>
       <c r="C10" t="n">
-        <v>1.73</v>
+        <v>1.42</v>
       </c>
       <c r="D10" t="n">
-        <v>2.82</v>
+        <v>1.92</v>
       </c>
       <c r="E10" t="n">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="F10" t="n">
-        <v>4.87</v>
+        <v>3.24</v>
       </c>
       <c r="G10" t="n">
-        <v>3.83</v>
+        <v>3.51</v>
       </c>
       <c r="H10" t="n">
-        <v>1.48</v>
+        <v>2.49</v>
       </c>
       <c r="I10" t="n">
-        <v>1.94</v>
+        <v>2.18</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>3.09</v>
+        <v>4.44</v>
       </c>
     </row>
     <row r="11">
@@ -5656,31 +7825,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.24</v>
+        <v>2.82</v>
       </c>
       <c r="C11" t="n">
-        <v>3.66</v>
+        <v>3.16</v>
       </c>
       <c r="D11" t="n">
-        <v>3.42</v>
+        <v>3.67</v>
       </c>
       <c r="E11" t="n">
-        <v>5.44</v>
+        <v>4.83</v>
       </c>
       <c r="F11" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="G11" t="n">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="H11" t="n">
-        <v>3.12</v>
+        <v>2.69</v>
       </c>
       <c r="I11" t="n">
-        <v>5.91</v>
+        <v>3.34</v>
       </c>
       <c r="J11" t="n">
-        <v>4.21</v>
+        <v>4.44</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -5692,6 +7861,421 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4.125829008877547</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4.822109021938776</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4.857012770934427</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5.000354943811407</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5.921753822799797</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.00721121429961</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5.029852366559691</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6.688375181311689</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4.327912376244245</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.160111375533408</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4.495357892181829</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.88513093260118</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5.515105685701024</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4.083429390928657</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2.762570706126199</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5.213810102189049</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4.593918986550957</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.394100884934516</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3.777321794923489</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.028463913869652</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>estimation_technique</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>max_error</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>max_percent_error</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>avg_error</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>avg_percent_error</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>true_pos_rate</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>false_pos_rate</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>runtime</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>rss_only</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.064102564102564</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5702222222222222</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.249442986195046</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.2592592592592592</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0001180171966552734</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>rss_post_averaged</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1.365</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.3745555555555556</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.172009394676081</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.1851851851851852</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0001146793365478516</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>spring_model</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.4168888888888889</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1948732337016038</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.05700969696044922</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>sdp</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7835555555555553</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.4156869183900934</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.7428293228149414</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>mds_metric</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3921568627450979</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.1691111111111111</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.09633745709356614</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.1481481481481481</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.161292552947998</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>mds_non_metric</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8600000000000001</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8627450980392157</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.2888888888888889</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.1755679442688659</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.1896047592163086</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>sdp_init_spring</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8549618320610688</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6822222222222223</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.3026180449468306</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.6262023448944092</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5745,31 +8329,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="D2" t="n">
         <v>1.16</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="I2" t="n">
         <v>1.17</v>
       </c>
-      <c r="E2" t="n">
-        <v>3.435</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.935</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1.285</v>
-      </c>
       <c r="J2" t="n">
-        <v>2.47</v>
+        <v>2.77</v>
       </c>
       <c r="K2" t="n">
-        <v>2.19</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="3">
@@ -5777,34 +8361,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.16</v>
+        <v>0.79</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.305</v>
+        <v>1.46</v>
       </c>
       <c r="E3" t="n">
-        <v>1.915</v>
+        <v>1.38</v>
       </c>
       <c r="F3" t="n">
-        <v>2.23</v>
+        <v>3.27</v>
       </c>
       <c r="G3" t="n">
-        <v>1.69</v>
+        <v>1.62</v>
       </c>
       <c r="H3" t="n">
-        <v>1.02</v>
+        <v>0.88</v>
       </c>
       <c r="I3" t="n">
-        <v>2.1</v>
+        <v>1.74</v>
       </c>
       <c r="J3" t="n">
-        <v>1.515</v>
+        <v>1.3</v>
       </c>
       <c r="K3" t="n">
-        <v>3.065</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="4">
@@ -5812,34 +8396,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="C4" t="n">
-        <v>1.305</v>
+        <v>1.15</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1.935</v>
+        <v>2.07</v>
       </c>
       <c r="F4" t="n">
-        <v>2.6</v>
+        <v>3.33</v>
       </c>
       <c r="G4" t="n">
-        <v>1.645</v>
+        <v>2.23</v>
       </c>
       <c r="H4" t="n">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="I4" t="n">
-        <v>4.12</v>
+        <v>2.94</v>
       </c>
       <c r="J4" t="n">
-        <v>2.48</v>
+        <v>2.14</v>
       </c>
       <c r="K4" t="n">
-        <v>3.41</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="5">
@@ -5847,34 +8431,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.435</v>
+        <v>5.31</v>
       </c>
       <c r="C5" t="n">
-        <v>1.915</v>
+        <v>2.45</v>
       </c>
       <c r="D5" t="n">
-        <v>1.935</v>
+        <v>1.8</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>3.66</v>
+        <v>4.38</v>
       </c>
       <c r="G5" t="n">
-        <v>3.89</v>
+        <v>2.92</v>
       </c>
       <c r="H5" t="n">
-        <v>1.945</v>
+        <v>1.72</v>
       </c>
       <c r="I5" t="n">
-        <v>2.225</v>
+        <v>1.74</v>
       </c>
       <c r="J5" t="n">
-        <v>0.53</v>
+        <v>0.57</v>
       </c>
       <c r="K5" t="n">
-        <v>5.175000000000001</v>
+        <v>4.91</v>
       </c>
     </row>
     <row r="6">
@@ -5882,34 +8466,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.98</v>
+        <v>1.7</v>
       </c>
       <c r="C6" t="n">
-        <v>2.23</v>
+        <v>1.19</v>
       </c>
       <c r="D6" t="n">
-        <v>2.6</v>
+        <v>1.87</v>
       </c>
       <c r="E6" t="n">
-        <v>3.66</v>
+        <v>2.94</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.315</v>
+        <v>0.18</v>
       </c>
       <c r="H6" t="n">
-        <v>2.315</v>
+        <v>2.06</v>
       </c>
       <c r="I6" t="n">
-        <v>3.28</v>
+        <v>1.92</v>
       </c>
       <c r="J6" t="n">
-        <v>5.315</v>
+        <v>5.76</v>
       </c>
       <c r="K6" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="7">
@@ -5917,34 +8501,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.935</v>
+        <v>2.1</v>
       </c>
       <c r="C7" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="D7" t="n">
-        <v>1.645</v>
+        <v>1.06</v>
       </c>
       <c r="E7" t="n">
-        <v>3.89</v>
+        <v>4.86</v>
       </c>
       <c r="F7" t="n">
-        <v>0.315</v>
+        <v>0.45</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>3.215</v>
+        <v>3.27</v>
       </c>
       <c r="I7" t="n">
-        <v>3.545</v>
+        <v>3.27</v>
       </c>
       <c r="J7" t="n">
-        <v>3.61</v>
+        <v>3.39</v>
       </c>
       <c r="K7" t="n">
-        <v>0.88</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -5952,34 +8536,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.885</v>
+        <v>1.35</v>
       </c>
       <c r="C8" t="n">
-        <v>1.02</v>
+        <v>1.16</v>
       </c>
       <c r="D8" t="n">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="E8" t="n">
-        <v>1.945</v>
+        <v>2.17</v>
       </c>
       <c r="F8" t="n">
-        <v>2.315</v>
+        <v>2.57</v>
       </c>
       <c r="G8" t="n">
-        <v>3.215</v>
+        <v>3.16</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>2.69</v>
+        <v>2.34</v>
       </c>
       <c r="J8" t="n">
-        <v>2.4</v>
+        <v>3.32</v>
       </c>
       <c r="K8" t="n">
-        <v>2.42</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="9">
@@ -5987,34 +8571,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.285</v>
+        <v>1.4</v>
       </c>
       <c r="C9" t="n">
-        <v>2.1</v>
+        <v>2.46</v>
       </c>
       <c r="D9" t="n">
-        <v>4.12</v>
+        <v>5.3</v>
       </c>
       <c r="E9" t="n">
-        <v>2.225</v>
+        <v>2.71</v>
       </c>
       <c r="F9" t="n">
-        <v>3.28</v>
+        <v>4.64</v>
       </c>
       <c r="G9" t="n">
-        <v>3.545</v>
+        <v>3.82</v>
       </c>
       <c r="H9" t="n">
-        <v>2.69</v>
+        <v>3.04</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1.695</v>
+        <v>1.45</v>
       </c>
       <c r="K9" t="n">
-        <v>3.71</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="10">
@@ -6022,34 +8606,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.47</v>
+        <v>2.17</v>
       </c>
       <c r="C10" t="n">
-        <v>1.515</v>
+        <v>1.73</v>
       </c>
       <c r="D10" t="n">
-        <v>2.48</v>
+        <v>2.82</v>
       </c>
       <c r="E10" t="n">
-        <v>0.53</v>
+        <v>0.49</v>
       </c>
       <c r="F10" t="n">
-        <v>5.315</v>
+        <v>4.87</v>
       </c>
       <c r="G10" t="n">
-        <v>3.61</v>
+        <v>3.83</v>
       </c>
       <c r="H10" t="n">
-        <v>2.4</v>
+        <v>1.48</v>
       </c>
       <c r="I10" t="n">
-        <v>1.695</v>
+        <v>1.94</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>3.65</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="11">
@@ -6057,572 +8641,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="C11" t="n">
-        <v>3.065</v>
+        <v>3.66</v>
       </c>
       <c r="D11" t="n">
-        <v>3.41</v>
+        <v>3.42</v>
       </c>
       <c r="E11" t="n">
-        <v>5.175000000000001</v>
+        <v>5.44</v>
       </c>
       <c r="F11" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="G11" t="n">
-        <v>0.88</v>
+        <v>1.07</v>
       </c>
       <c r="H11" t="n">
-        <v>2.42</v>
+        <v>3.12</v>
       </c>
       <c r="I11" t="n">
-        <v>3.71</v>
+        <v>5.91</v>
       </c>
       <c r="J11" t="n">
-        <v>3.65</v>
+        <v>4.21</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.82</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.16</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.67</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="G5" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4.83</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1.12</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.69</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.34</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="G10" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4.44</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="D11" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="E11" t="n">
-        <v>4.83</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>4.125829008877547</v>
-      </c>
-      <c r="C2" t="n">
-        <v>4.822109021938776</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>4.857012770934427</v>
-      </c>
-      <c r="C3" t="n">
-        <v>5.000354943811407</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>5.921753822799797</v>
-      </c>
-      <c r="C4" t="n">
-        <v>5.00721121429961</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>5.029852366559691</v>
-      </c>
-      <c r="C5" t="n">
-        <v>6.688375181311689</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4.327912376244245</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3.160111375533408</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>4.495357892181829</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2.88513093260118</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>5.515105685701024</v>
-      </c>
-      <c r="C8" t="n">
-        <v>4.083429390928657</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2.762570706126199</v>
-      </c>
-      <c r="C9" t="n">
-        <v>5.213810102189049</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4.593918986550957</v>
-      </c>
-      <c r="C10" t="n">
-        <v>6.394100884934516</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>3.777321794923489</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.028463913869652</v>
       </c>
     </row>
   </sheetData>
@@ -6684,31 +8730,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.68</v>
+        <v>1.1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.84</v>
+        <v>1.17</v>
       </c>
       <c r="E2" t="n">
-        <v>1.76</v>
+        <v>2.88</v>
       </c>
       <c r="F2" t="n">
-        <v>2.18</v>
+        <v>1.96</v>
       </c>
       <c r="G2" t="n">
-        <v>1.45</v>
+        <v>1.93</v>
       </c>
       <c r="H2" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.81</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="J2" t="n">
-        <v>1.94</v>
+        <v>2.45</v>
       </c>
       <c r="K2" t="n">
-        <v>1.65</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="3">
@@ -6716,34 +8762,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.68</v>
+        <v>1.1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.16</v>
+        <v>1.3</v>
       </c>
       <c r="E3" t="n">
-        <v>1.09</v>
+        <v>1.84</v>
       </c>
       <c r="F3" t="n">
-        <v>2.85</v>
+        <v>1.97</v>
       </c>
       <c r="G3" t="n">
-        <v>2.13</v>
+        <v>1.69</v>
       </c>
       <c r="H3" t="n">
-        <v>0.61</v>
+        <v>1.01</v>
       </c>
       <c r="I3" t="n">
-        <v>0.68</v>
+        <v>2.07</v>
       </c>
       <c r="J3" t="n">
-        <v>1.26</v>
+        <v>1.5</v>
       </c>
       <c r="K3" t="n">
-        <v>2.32</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="4">
@@ -6751,34 +8797,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.84</v>
+        <v>1.17</v>
       </c>
       <c r="C4" t="n">
-        <v>0.16</v>
+        <v>1.3</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.93</v>
+        <v>1.93</v>
       </c>
       <c r="F4" t="n">
-        <v>3.02</v>
+        <v>2.5</v>
       </c>
       <c r="G4" t="n">
-        <v>2.29</v>
+        <v>1.54</v>
       </c>
       <c r="H4" t="n">
-        <v>0.77</v>
+        <v>1.5</v>
       </c>
       <c r="I4" t="n">
-        <v>0.84</v>
+        <v>3.95</v>
       </c>
       <c r="J4" t="n">
-        <v>1.1</v>
+        <v>2.46</v>
       </c>
       <c r="K4" t="n">
-        <v>2.48</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="5">
@@ -6786,34 +8832,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.76</v>
+        <v>2.88</v>
       </c>
       <c r="C5" t="n">
-        <v>1.09</v>
+        <v>1.84</v>
       </c>
       <c r="D5" t="n">
-        <v>0.93</v>
+        <v>1.93</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>3.94</v>
+        <v>3.59</v>
       </c>
       <c r="G5" t="n">
-        <v>3.21</v>
+        <v>3.77</v>
       </c>
       <c r="H5" t="n">
-        <v>1.69</v>
+        <v>1.93</v>
       </c>
       <c r="I5" t="n">
-        <v>1.76</v>
+        <v>2.17</v>
       </c>
       <c r="J5" t="n">
-        <v>0.17</v>
+        <v>0.53</v>
       </c>
       <c r="K5" t="n">
-        <v>3.41</v>
+        <v>5.17</v>
       </c>
     </row>
     <row r="6">
@@ -6821,34 +8867,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.18</v>
+        <v>1.96</v>
       </c>
       <c r="C6" t="n">
-        <v>2.85</v>
+        <v>1.97</v>
       </c>
       <c r="D6" t="n">
-        <v>3.02</v>
+        <v>2.5</v>
       </c>
       <c r="E6" t="n">
-        <v>3.94</v>
+        <v>3.59</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.73</v>
+        <v>0.29</v>
       </c>
       <c r="H6" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.18</v>
+        <v>2.98</v>
       </c>
       <c r="J6" t="n">
-        <v>4.12</v>
+        <v>5.3</v>
       </c>
       <c r="K6" t="n">
-        <v>0.53</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="7">
@@ -6856,34 +8902,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.45</v>
+        <v>1.93</v>
       </c>
       <c r="C7" t="n">
-        <v>2.13</v>
+        <v>1.69</v>
       </c>
       <c r="D7" t="n">
-        <v>2.29</v>
+        <v>1.54</v>
       </c>
       <c r="E7" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>3.21</v>
       </c>
-      <c r="F7" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1.52</v>
-      </c>
       <c r="I7" t="n">
-        <v>1.45</v>
+        <v>3.53</v>
       </c>
       <c r="J7" t="n">
-        <v>3.39</v>
+        <v>3.6</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="8">
@@ -6891,34 +8937,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.81</v>
       </c>
       <c r="C8" t="n">
-        <v>0.61</v>
+        <v>1.01</v>
       </c>
       <c r="D8" t="n">
-        <v>0.77</v>
+        <v>1.5</v>
       </c>
       <c r="E8" t="n">
-        <v>1.69</v>
+        <v>1.93</v>
       </c>
       <c r="F8" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="G8" t="n">
-        <v>1.52</v>
+        <v>3.21</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.07000000000000001</v>
+        <v>2.67</v>
       </c>
       <c r="J8" t="n">
-        <v>1.87</v>
+        <v>2.22</v>
       </c>
       <c r="K8" t="n">
-        <v>1.72</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="9">
@@ -6926,34 +8972,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="C9" t="n">
-        <v>0.68</v>
+        <v>2.07</v>
       </c>
       <c r="D9" t="n">
-        <v>0.84</v>
+        <v>3.95</v>
       </c>
       <c r="E9" t="n">
-        <v>1.76</v>
+        <v>2.17</v>
       </c>
       <c r="F9" t="n">
-        <v>2.18</v>
+        <v>2.98</v>
       </c>
       <c r="G9" t="n">
-        <v>1.45</v>
+        <v>3.53</v>
       </c>
       <c r="H9" t="n">
-        <v>0.07000000000000001</v>
+        <v>2.67</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1.94</v>
+        <v>1.68</v>
       </c>
       <c r="K9" t="n">
-        <v>1.65</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="10">
@@ -6961,34 +9007,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.94</v>
+        <v>2.45</v>
       </c>
       <c r="C10" t="n">
-        <v>1.26</v>
+        <v>1.5</v>
       </c>
       <c r="D10" t="n">
-        <v>1.1</v>
+        <v>2.46</v>
       </c>
       <c r="E10" t="n">
-        <v>0.17</v>
+        <v>0.53</v>
       </c>
       <c r="F10" t="n">
-        <v>4.12</v>
+        <v>5.3</v>
       </c>
       <c r="G10" t="n">
-        <v>3.39</v>
+        <v>3.6</v>
       </c>
       <c r="H10" t="n">
-        <v>1.87</v>
+        <v>2.22</v>
       </c>
       <c r="I10" t="n">
-        <v>1.94</v>
+        <v>1.68</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>3.58</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="11">
@@ -6996,31 +9042,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.65</v>
+        <v>2.19</v>
       </c>
       <c r="C11" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="H11" t="n">
         <v>2.32</v>
       </c>
-      <c r="D11" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="E11" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1.72</v>
-      </c>
       <c r="I11" t="n">
-        <v>1.65</v>
+        <v>2.98</v>
       </c>
       <c r="J11" t="n">
-        <v>3.58</v>
+        <v>3.61</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
